--- a/WebTables.xlsx
+++ b/WebTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrijana Locki\IdeaProjects\WebTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF722C76-79A8-4C38-A50F-FF4861192FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6B496-AAF2-46A0-B329-F9E1209D6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{185BEB95-CD5B-492D-BA51-B272B40ED891}"/>
+    <workbookView xWindow="144" yWindow="1440" windowWidth="12120" windowHeight="9960" xr2:uid="{185BEB95-CD5B-492D-BA51-B272B40ED891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,22 +80,6 @@
     <t>Ser</t>
   </si>
   <si>
-    <t xml:space="preserve">
-david@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-andrijana@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-katty@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-jovana@example.com</t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -106,16 +90,36 @@
   </si>
   <si>
     <t>Compliance</t>
+  </si>
+  <si>
+    <t>david@example.com</t>
+  </si>
+  <si>
+    <t>andrijana@example.com</t>
+  </si>
+  <si>
+    <t>katty@example.com</t>
+  </si>
+  <si>
+    <t>jovana@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,17 +142,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,7 +490,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +510,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -517,87 +523,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5138BD9E-FE18-48F7-AEA0-C948E277F265}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{CA840419-2DB1-4105-AB86-3E9059E1B877}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{CE42CC32-55BA-4FA4-9979-D3B606B31790}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{96D909FB-7912-4CC2-AEBB-2EE1BCB3EC13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>